--- a/PCB-DiffTorch-MCU/信号板BOM.xlsx
+++ b/PCB-DiffTorch-MCU/信号板BOM.xlsx
@@ -597,7 +597,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +607,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +956,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,16 +980,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -986,89 +998,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,6 +1093,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,6 +1112,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,48 +1654,51 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="6" width="13.9537037037037" customWidth="1"/>
+    <col min="1" max="2" width="13.9537037037037" customWidth="1"/>
+    <col min="3" max="3" width="38.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="26.3333333333333" customWidth="1"/>
+    <col min="5" max="6" width="13.9537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2">
@@ -1667,542 +1706,542 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="4">
         <v>1</v>
       </c>
     </row>
